--- a/IC files/results/longDTA/corner_preference_ICs_longDTA.xlsx
+++ b/IC files/results/longDTA/corner_preference_ICs_longDTA.xlsx
@@ -2548,7 +2548,7 @@
         <v>0.243243243243243</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.45945945945946</v>
+        <v>0.459459459459459</v>
       </c>
       <c r="AU3" t="n">
         <v>0.192825112107623</v>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.17948717948718</v>
+        <v>0.179487179487179</v>
       </c>
       <c r="BX3" t="n">
         <v>0.192307692307692</v>
@@ -3312,7 +3312,7 @@
         <v>0.136842105263158</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.48421052631579</v>
+        <v>0.484210526315789</v>
       </c>
       <c r="CE4" t="n">
         <v>0.000520833333333333</v>
@@ -3881,7 +3881,7 @@
         <v>0.256410256410256</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.17948717948718</v>
+        <v>0.179487179487179</v>
       </c>
       <c r="BB5" t="n">
         <v>0.230769230769231</v>
@@ -5187,7 +5187,7 @@
         <v>1</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.17948717948718</v>
+        <v>0.179487179487179</v>
       </c>
       <c r="AZ7" t="n">
         <v>0.256410256410256</v>
@@ -5828,7 +5828,7 @@
         <v>0.0526315789473684</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.68421052631579</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -7886,7 +7886,7 @@
         <v>0.231578947368421</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.28421052631579</v>
+        <v>0.284210526315789</v>
       </c>
       <c r="BY11" t="n">
         <v>0.210526315789474</v>
@@ -8473,7 +8473,7 @@
         <v>0.307692307692308</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.17948717948718</v>
+        <v>0.179487179487179</v>
       </c>
       <c r="BB12" t="n">
         <v>0.256410256410256</v>
@@ -8572,7 +8572,7 @@
         <v>0.486853637160386</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.072304995617879</v>
+        <v>0.0723049956178791</v>
       </c>
       <c r="CI12" t="n">
         <v>0.218181818181818</v>
@@ -8988,7 +8988,7 @@
         <v>0.230769230769231</v>
       </c>
       <c r="F13" t="n">
-        <v>0.17948717948718</v>
+        <v>0.179487179487179</v>
       </c>
       <c r="G13" t="n">
         <v>0.198952879581152</v>
@@ -9042,7 +9042,7 @@
         <v>0.257249766136576</v>
       </c>
       <c r="X13" t="n">
-        <v>0.20112254443405</v>
+        <v>0.201122544434051</v>
       </c>
       <c r="Y13" t="n">
         <v>0.125350795135641</v>
@@ -10956,7 +10956,7 @@
         <v>0.217948717948718</v>
       </c>
       <c r="F16" t="n">
-        <v>0.17948717948718</v>
+        <v>0.179487179487179</v>
       </c>
       <c r="G16" t="n">
         <v>0.244360902255639</v>
@@ -11016,7 +11016,7 @@
         <v>0.0978090766823161</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.60133020344288</v>
+        <v>0.601330203442879</v>
       </c>
       <c r="AA16" t="n">
         <v>0.202702702702703</v>
@@ -13640,7 +13640,7 @@
         <v>0.332542975696503</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.052756372258447</v>
+        <v>0.0527563722584469</v>
       </c>
       <c r="AA20" t="n">
         <v>0.427350427350427</v>
@@ -14907,7 +14907,7 @@
         <v>0.278169014084507</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0072538860103627</v>
+        <v>0.00725388601036269</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -17669,7 +17669,7 @@
         <v>0.289473684210526</v>
       </c>
       <c r="BE26" t="n">
-        <v>0.31578947368421</v>
+        <v>0.315789473684211</v>
       </c>
       <c r="BF26" t="n">
         <v>0.289473684210526</v>
@@ -17756,7 +17756,7 @@
         <v>0.0885111371629543</v>
       </c>
       <c r="CH26" t="n">
-        <v>0.62485345838218</v>
+        <v>0.624853458382181</v>
       </c>
       <c r="CI26" t="n">
         <v>0.209302325581395</v>
@@ -18229,7 +18229,7 @@
         <v>0.145482987876418</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.60735236605397</v>
+        <v>0.607352366053969</v>
       </c>
       <c r="Z27" t="n">
         <v>0.0582714118107157</v>
